--- a/_Sist_Proc_Datos/Semaforo.xlsx
+++ b/_Sist_Proc_Datos/Semaforo.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8955" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8955" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Secuencia" sheetId="5" r:id="rId2"/>
     <sheet name="Hoja1 (2)" sheetId="2" r:id="rId3"/>
     <sheet name="Hoja1 (3)" sheetId="3" r:id="rId4"/>
+    <sheet name="Hoja1 (4)" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
   <si>
     <t>Semaforo 1</t>
   </si>
@@ -46,12 +47,21 @@
   <si>
     <t>Tiempo</t>
   </si>
+  <si>
+    <t>Numero Estado1</t>
+  </si>
+  <si>
+    <t>Numero Estado2</t>
+  </si>
+  <si>
+    <t>secuencia</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +79,13 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -164,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -187,6 +204,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,7 +536,7 @@
   <dimension ref="A2:Y19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD8"/>
+      <selection activeCell="B16" sqref="B16:X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,7 +929,7 @@
         <v>5</v>
       </c>
       <c r="S17">
-        <f t="shared" ref="O17:Y17" si="0">G17+5</f>
+        <f t="shared" ref="S17:Y17" si="0">G17+5</f>
         <v>6</v>
       </c>
       <c r="T17">
@@ -967,7 +993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M2" sqref="M2:M11"/>
     </sheetView>
   </sheetViews>
@@ -1964,4 +1990,683 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:Y23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="12" width="3.140625" customWidth="1"/>
+    <col min="13" max="13" width="3.140625" style="13" customWidth="1"/>
+    <col min="14" max="25" width="3.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="2"/>
+    </row>
+    <row r="9" spans="1:25" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="22">
+        <v>0</v>
+      </c>
+      <c r="C9" s="23">
+        <v>0</v>
+      </c>
+      <c r="D9" s="23">
+        <v>0</v>
+      </c>
+      <c r="E9" s="23">
+        <v>0</v>
+      </c>
+      <c r="F9" s="23">
+        <v>0</v>
+      </c>
+      <c r="G9" s="22">
+        <v>1</v>
+      </c>
+      <c r="H9" s="23">
+        <v>0</v>
+      </c>
+      <c r="I9" s="23">
+        <v>1</v>
+      </c>
+      <c r="J9" s="23">
+        <v>0</v>
+      </c>
+      <c r="K9" s="22">
+        <v>2</v>
+      </c>
+      <c r="L9" s="23">
+        <v>2</v>
+      </c>
+      <c r="M9" s="23">
+        <v>2</v>
+      </c>
+      <c r="N9" s="22">
+        <v>3</v>
+      </c>
+      <c r="O9" s="23">
+        <v>3</v>
+      </c>
+      <c r="P9" s="23">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="23">
+        <v>3</v>
+      </c>
+      <c r="R9" s="23">
+        <v>3</v>
+      </c>
+      <c r="S9" s="23">
+        <v>3</v>
+      </c>
+      <c r="T9" s="23">
+        <v>3</v>
+      </c>
+      <c r="U9" s="22">
+        <v>4</v>
+      </c>
+      <c r="V9" s="23">
+        <v>3</v>
+      </c>
+      <c r="W9" s="23">
+        <v>4</v>
+      </c>
+      <c r="X9" s="23">
+        <v>3</v>
+      </c>
+      <c r="Y9" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="22">
+        <v>3</v>
+      </c>
+      <c r="C18" s="23">
+        <v>3</v>
+      </c>
+      <c r="D18" s="23">
+        <v>3</v>
+      </c>
+      <c r="E18" s="23">
+        <v>3</v>
+      </c>
+      <c r="F18" s="23">
+        <v>3</v>
+      </c>
+      <c r="G18" s="23">
+        <v>3</v>
+      </c>
+      <c r="H18" s="23">
+        <v>3</v>
+      </c>
+      <c r="I18" s="22">
+        <v>4</v>
+      </c>
+      <c r="J18" s="23">
+        <v>3</v>
+      </c>
+      <c r="K18" s="23">
+        <v>4</v>
+      </c>
+      <c r="L18" s="23">
+        <v>3</v>
+      </c>
+      <c r="M18" s="23">
+        <v>4</v>
+      </c>
+      <c r="N18" s="22">
+        <v>0</v>
+      </c>
+      <c r="O18" s="23">
+        <v>0</v>
+      </c>
+      <c r="P18" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="23">
+        <v>0</v>
+      </c>
+      <c r="R18" s="23">
+        <v>0</v>
+      </c>
+      <c r="S18" s="22">
+        <v>1</v>
+      </c>
+      <c r="T18" s="23">
+        <v>0</v>
+      </c>
+      <c r="U18" s="23">
+        <v>1</v>
+      </c>
+      <c r="V18" s="23">
+        <v>0</v>
+      </c>
+      <c r="W18" s="22">
+        <v>2</v>
+      </c>
+      <c r="X18" s="23">
+        <v>2</v>
+      </c>
+      <c r="Y18" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="22">
+        <v>0</v>
+      </c>
+      <c r="C21" s="22">
+        <v>1</v>
+      </c>
+      <c r="D21" s="22">
+        <v>2</v>
+      </c>
+      <c r="E21" s="22">
+        <v>3</v>
+      </c>
+      <c r="F21" s="22">
+        <v>4</v>
+      </c>
+      <c r="G21" s="22">
+        <v>5</v>
+      </c>
+      <c r="H21" s="22">
+        <v>6</v>
+      </c>
+      <c r="I21" s="22">
+        <v>7</v>
+      </c>
+      <c r="J21" s="22">
+        <v>8</v>
+      </c>
+      <c r="K21" s="22">
+        <v>9</v>
+      </c>
+      <c r="L21" s="22">
+        <v>10</v>
+      </c>
+      <c r="M21" s="22">
+        <v>11</v>
+      </c>
+      <c r="N21" s="24">
+        <v>12</v>
+      </c>
+      <c r="O21" s="22">
+        <v>13</v>
+      </c>
+      <c r="P21" s="22">
+        <v>14</v>
+      </c>
+      <c r="Q21" s="22">
+        <v>15</v>
+      </c>
+      <c r="R21" s="22">
+        <v>16</v>
+      </c>
+      <c r="S21" s="22">
+        <v>17</v>
+      </c>
+      <c r="T21" s="22">
+        <v>18</v>
+      </c>
+      <c r="U21" s="22">
+        <v>19</v>
+      </c>
+      <c r="V21" s="22">
+        <v>20</v>
+      </c>
+      <c r="W21" s="22">
+        <v>21</v>
+      </c>
+      <c r="X21" s="22">
+        <v>22</v>
+      </c>
+      <c r="Y21" s="22">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="22">
+        <v>0</v>
+      </c>
+      <c r="C22" s="23">
+        <v>0</v>
+      </c>
+      <c r="D22" s="23">
+        <v>0</v>
+      </c>
+      <c r="E22" s="23">
+        <v>0</v>
+      </c>
+      <c r="F22" s="23">
+        <v>0</v>
+      </c>
+      <c r="G22" s="22">
+        <v>1</v>
+      </c>
+      <c r="H22" s="23">
+        <v>0</v>
+      </c>
+      <c r="I22" s="23">
+        <v>1</v>
+      </c>
+      <c r="J22" s="23">
+        <v>0</v>
+      </c>
+      <c r="K22" s="22">
+        <v>2</v>
+      </c>
+      <c r="L22" s="23">
+        <v>2</v>
+      </c>
+      <c r="M22" s="23">
+        <v>2</v>
+      </c>
+      <c r="N22" s="22">
+        <v>3</v>
+      </c>
+      <c r="O22" s="23">
+        <v>3</v>
+      </c>
+      <c r="P22" s="23">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="23">
+        <v>3</v>
+      </c>
+      <c r="R22" s="23">
+        <v>3</v>
+      </c>
+      <c r="S22" s="23">
+        <v>3</v>
+      </c>
+      <c r="T22" s="23">
+        <v>3</v>
+      </c>
+      <c r="U22" s="22">
+        <v>4</v>
+      </c>
+      <c r="V22" s="23">
+        <v>3</v>
+      </c>
+      <c r="W22" s="23">
+        <v>4</v>
+      </c>
+      <c r="X22" s="23">
+        <v>3</v>
+      </c>
+      <c r="Y22" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="22">
+        <v>3</v>
+      </c>
+      <c r="C23" s="23">
+        <v>3</v>
+      </c>
+      <c r="D23" s="23">
+        <v>3</v>
+      </c>
+      <c r="E23" s="23">
+        <v>3</v>
+      </c>
+      <c r="F23" s="23">
+        <v>3</v>
+      </c>
+      <c r="G23" s="23">
+        <v>3</v>
+      </c>
+      <c r="H23" s="23">
+        <v>3</v>
+      </c>
+      <c r="I23" s="22">
+        <v>4</v>
+      </c>
+      <c r="J23" s="23">
+        <v>3</v>
+      </c>
+      <c r="K23" s="23">
+        <v>4</v>
+      </c>
+      <c r="L23" s="23">
+        <v>3</v>
+      </c>
+      <c r="M23" s="23">
+        <v>4</v>
+      </c>
+      <c r="N23" s="22">
+        <v>0</v>
+      </c>
+      <c r="O23" s="23">
+        <v>0</v>
+      </c>
+      <c r="P23" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="23">
+        <v>0</v>
+      </c>
+      <c r="R23" s="23">
+        <v>0</v>
+      </c>
+      <c r="S23" s="22">
+        <v>1</v>
+      </c>
+      <c r="T23" s="23">
+        <v>0</v>
+      </c>
+      <c r="U23" s="23">
+        <v>1</v>
+      </c>
+      <c r="V23" s="23">
+        <v>0</v>
+      </c>
+      <c r="W23" s="22">
+        <v>2</v>
+      </c>
+      <c r="X23" s="23">
+        <v>2</v>
+      </c>
+      <c r="Y23" s="23">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/_Sist_Proc_Datos/Semaforo.xlsx
+++ b/_Sist_Proc_Datos/Semaforo.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\alebenWS\_Sist_Proc_Datos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8955" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8955" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,7 +13,7 @@
     <sheet name="Hoja1 (3)" sheetId="3" r:id="rId4"/>
     <sheet name="Hoja1 (4)" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,7 +55,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -525,7 +520,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -533,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Y19"/>
+  <dimension ref="A2:Y22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:X16"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,6 +978,32 @@
         <v>7</v>
       </c>
     </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="J22">
+        <v>4</v>
+      </c>
+      <c r="K22">
+        <v>5</v>
+      </c>
+      <c r="L22">
+        <v>6</v>
+      </c>
+      <c r="M22" s="13">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
@@ -993,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P13:P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1500,7 +1521,7 @@
   <dimension ref="A2:Y15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+      <selection activeCell="AA3" sqref="AA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1996,8 +2017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Y23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X24" sqref="X24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/_Sist_Proc_Datos/Semaforo.xlsx
+++ b/_Sist_Proc_Datos/Semaforo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8955" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8955" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Hoja1 (2)" sheetId="2" r:id="rId3"/>
     <sheet name="Hoja1 (3)" sheetId="3" r:id="rId4"/>
     <sheet name="Hoja1 (4)" sheetId="6" r:id="rId5"/>
+    <sheet name="Hoja1 (5)" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="10">
   <si>
     <t>Semaforo 1</t>
   </si>
@@ -50,6 +51,9 @@
   </si>
   <si>
     <t>secuencia</t>
+  </si>
+  <si>
+    <t>Secuencia:</t>
   </si>
 </sst>
 </file>
@@ -520,7 +524,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1014,7 +1018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P14" sqref="P13:P14"/>
     </sheetView>
   </sheetViews>
@@ -2690,4 +2694,489 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB6" sqref="AB6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="12" width="3.140625" customWidth="1"/>
+    <col min="13" max="13" width="3.140625" style="13" customWidth="1"/>
+    <col min="14" max="25" width="3.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1">
+        <f>B17</f>
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <f>B1+IF(B17=C17,,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <f t="shared" ref="D1:Y1" si="0">C1+IF(C17=D17,,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="M1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="2"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>6</v>
+      </c>
+      <c r="H16">
+        <v>7</v>
+      </c>
+      <c r="I16">
+        <v>8</v>
+      </c>
+      <c r="J16">
+        <v>9</v>
+      </c>
+      <c r="K16">
+        <v>10</v>
+      </c>
+      <c r="L16">
+        <v>11</v>
+      </c>
+      <c r="M16" s="13">
+        <v>12</v>
+      </c>
+      <c r="N16">
+        <v>13</v>
+      </c>
+      <c r="O16">
+        <v>14</v>
+      </c>
+      <c r="P16">
+        <v>15</v>
+      </c>
+      <c r="Q16">
+        <v>16</v>
+      </c>
+      <c r="R16">
+        <v>17</v>
+      </c>
+      <c r="S16">
+        <v>18</v>
+      </c>
+      <c r="T16">
+        <v>19</v>
+      </c>
+      <c r="U16">
+        <v>20</v>
+      </c>
+      <c r="V16">
+        <v>21</v>
+      </c>
+      <c r="W16">
+        <v>22</v>
+      </c>
+      <c r="X16">
+        <v>23</v>
+      </c>
+      <c r="Y16">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>4</v>
+      </c>
+      <c r="M17" s="13">
+        <v>3</v>
+      </c>
+      <c r="N17">
+        <f>B17+5</f>
+        <v>5</v>
+      </c>
+      <c r="S17">
+        <f t="shared" ref="S17:Y17" si="1">G17+5</f>
+        <v>6</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>